--- a/etc/최종프로젝트/요구사항정의서.xlsx
+++ b/etc/최종프로젝트/요구사항정의서.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangy\git\bitcamp-mystudy\etc\최종프로젝트\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A658221-E4C6-4C3D-8CB4-80F4B4D86B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="요구사항정의서" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="참조" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
+    <sheet name="참조" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,117 +28,105 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
-    <t xml:space="preserve">연번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">업무 그룹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서비스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQ ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요구사항명</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">담당자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상태</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완료일자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요구사항상세</t>
-  </si>
-  <si>
-    <t xml:space="preserve">비고</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회원</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USR_LGI_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기능</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팀원</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강윤상</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">권기윤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진행중</t>
-  </si>
-  <si>
-    <t xml:space="preserve">비기능</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김민수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완료</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김재우</t>
-  </si>
-  <si>
-    <t xml:space="preserve">양지윤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이우성</t>
+    <t>연번</t>
+  </si>
+  <si>
+    <t>업무 그룹</t>
+  </si>
+  <si>
+    <t>서비스</t>
+  </si>
+  <si>
+    <t>REQ ID</t>
+  </si>
+  <si>
+    <t>요구사항명</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>상태</t>
+  </si>
+  <si>
+    <t>완료일자</t>
+  </si>
+  <si>
+    <t>요구사항상세</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>회원</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>USR_LGI_001</t>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>팀원</t>
+  </si>
+  <si>
+    <t>강윤상</t>
+  </si>
+  <si>
+    <t>미정</t>
+  </si>
+  <si>
+    <t>권기윤</t>
+  </si>
+  <si>
+    <t>진행중</t>
+  </si>
+  <si>
+    <t>비기능</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>김재우</t>
+  </si>
+  <si>
+    <t>양지윤</t>
+  </si>
+  <si>
+    <t>이우성</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,7 +144,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -159,61 +152,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -272,62 +231,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -380,32 +355,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="42.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.52"/>
+    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -440,72 +413,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F1004" type="list">
-      <formula1>참조!$C$2:$C$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G1004" type="list">
-      <formula1>참조!$A$2:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H1004" type="list">
-      <formula1>참조!$B$2:$B$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,보통"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,보통"페이지 &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>참조!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>F2:F1004</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>참조!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>G2:G1004</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>참조!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>H2:H1004</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -516,56 +505,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,보통"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,보통"페이지 &amp;P</oddFooter>
   </headerFooter>
